--- a/biology/Médecine/Fédération_nationale_des_infirmières_de_Belgique/Fédération_nationale_des_infirmières_de_Belgique.xlsx
+++ b/biology/Médecine/Fédération_nationale_des_infirmières_de_Belgique/Fédération_nationale_des_infirmières_de_Belgique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmi%C3%A8res_de_Belgique</t>
+          <t>Fédération_nationale_des_infirmières_de_Belgique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération Nationale des Infirmières de Belgique est une association fondée en 1922.
 Elle se donne comme but de rassembler et d'unifier les groupements professionnels infirmiers épars, les amicales professionnelles régionales, attachées à un hôpital ou une école d'infirmiers, et les groupements professionnels infirmiers spécialisés. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_infirmi%C3%A8res_de_Belgique</t>
+          <t>Fédération_nationale_des_infirmières_de_Belgique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À sa création, la FNIB comportait déjà deux sections, l'une francophone et l'autre néerlandophone. Le conseil d'administration était paritaire et la présidence de la Fédération était assurée de façon alternée par les deux sections linguistiques. 
 En 1924, à la suite de débats internes, un groupe d'infirmiers décide de faire dissidence et de se séparer de la Fédération Nationale. Ils créent, en 1925, "l'Association des Infirmières Catholiques Belges" qui deviendra en 1962 "l'Association Nationale Catholique du Nursing" (ACN). 
